--- a/Water Table-Test2.xlsx
+++ b/Water Table-Test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cansu/Desktop/Cansu Belgeler/AUSTIN/HFC2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72152B3-DB5D-184F-B124-59097C0245E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4AECA-EB8F-1946-93F8-4C59276B0A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="16180" xr2:uid="{66E373EE-749A-A54A-A2C1-B57713C7AFA5}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,14 +897,14 @@
         <v>364435</v>
       </c>
       <c r="D14">
-        <v>2584.2039599999998</v>
+        <v>2583.9050000000002</v>
       </c>
       <c r="E14" s="12">
         <v>1.277112</v>
       </c>
       <c r="F14" s="7">
         <f>D14-E14</f>
-        <v>2582.9268479999996</v>
+        <v>2582.627888</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
